--- a/Puntos.xlsx
+++ b/Puntos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nombre:Alpheratz , Ascencion:2.3443, Descencion:29.0926, X:613, Y:334</t>
+          <t>Nombre:Vega , Ascencion:279.2367, Descencion:38.7908, X:330, Y:194</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nombre:Algenib , Ascencion:3.5525, Descencion:15.1861, X:323, Y:374</t>
+          <t>Nombre:Eltanin , Ascencion:269.1516, Descencion:51.4942, X:320, Y:243</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nombre:Markab , Ascencion:346.4246, Descencion:15.208, X:327, Y:37</t>
+          <t>Nombre:Rastaban , Ascencion:262.6072, Descencion:52.3068, X:310, Y:250</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nombre:Funda , Ascencion:345.9486, Descencion:28.0871, X:593, Y:43</t>
+          <t>Nombre:Grumium , Ascencion:268.3838, Descencion:56.8728, X:325, Y:260</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,237 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nombre:Punto A,D , Ascencion:174.56750000000002, Descencion:21.89345, X:0, Y:0</t>
+          <t>Nombre:n Her , Ascencion:258.7605, Descencion:36.8141, X:273, Y:202</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nombre:44 Her , Ascencion:250.7221, Descencion:38.9265, X:258, Y:220</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nombre:Rutilicus , Ascencion:250.3177, Descencion:31.6094, X:234, Y:192</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nombre:Fawaris , Ascencion:296.2472, Descencion:45.1359, X:374, Y:217</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nombre:Sadr , Ascencion:28.6541, Descencion:65.3695, X:399, Y:203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nombre:Aljanah , Ascencion:311.5598, Descencion:33.9764, X:423, Y:182</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nombre:Fawaris III , Ascencion:318.2386, Descencion:30.2301, X:451, Y:170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nombre:Deneb , Ascencion:310.3629, Descencion:45.2846, X:404, Y:222</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nombre:Alderamin , Ascencion:19.655, Descencion:62.5888, X:400, Y:281</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nombre:Kabalfird , Ascencion:311.3379, Descencion:61.847, X:389, Y:273</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nombre:Alfirk , Ascencion:322.0177, Descencion:70.5643, X:390, Y:302</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nombre:I cep , Ascencion:342.43, Descencion:66.2027, X:416, Y:307</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nombre:Errai , Ascencion:354.8652, Descencion:77.6336, X:393, Y:335</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nombre:Caph , Ascencion:2.3065, Descencion:59.1549, X:453, Y:320</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nombre:Shedar , Ascencion:10.1366, Descencion:56.5376, X:470, Y:332</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nombre:Navi , Ascencion:14.1876, Descencion:60.7167, X:456, Y:342</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nombre:Ksora , Ascencion:21.4649, Descencion:60.2365, X:462, Y:355</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nombre:Alkaid , Ascencion:206.875, Descencion:49.3163, X:221, Y:334</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nombre:Mizar , Ascencion:200.9745, Descencion:54.9283, X:235, Y:352</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nombre:Alioth , Ascencion:193.4996, Descencion:55.9624, X:235, Y:369</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nombre:Phecda , Ascencion:178.45, Descencion:53.6961, X:225, Y:412</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nombre:Merak , Ascencion:165.45, Descencion:56.3827, X:246, Y:438</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nombre:Dubhe , Ascencion:165.9199, Descencion:61.752, X:270, Y:419</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nombre:Punto A,D , Ascencion:207.91898518518516, Descencion:53.12337037037036, X:0, Y:0</t>
         </is>
       </c>
     </row>
